--- a/DatosContrato.xlsx
+++ b/DatosContrato.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Desktop\AutoDatosViajeros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DatosViajeros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BACFC866-3A2A-4D53-9D92-E3992FA7166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3123FC3-BE5F-49C2-815A-80B9D85CEF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FC20CB11-AA40-4491-BB35-1EEA2A64B57E}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{FC20CB11-AA40-4491-BB35-1EEA2A64B57E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Referencia de contrato</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Fecha de entrada</t>
-  </si>
-  <si>
-    <t>Fechad de salida</t>
   </si>
   <si>
     <t>Numero de personas</t>
@@ -67,16 +64,28 @@
   <si>
     <t>Fecha de caducidad de la Tarjeta</t>
   </si>
+  <si>
+    <t>TRANS</t>
+  </si>
+  <si>
+    <t>Trans a BancoXXX</t>
+  </si>
+  <si>
+    <t>Transferencia Bancaria</t>
+  </si>
+  <si>
+    <t>Fecha de salida</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="[$-C0A]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,32 +205,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -566,721 +561,739 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E164BE-ADA9-45AB-9B9B-AC606F6703E6}">
-  <dimension ref="B1:O54"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1"/>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>123</v>
+      </c>
+      <c r="B2" s="11">
+        <v>45741</v>
+      </c>
+      <c r="C2" s="11">
+        <v>45741</v>
+      </c>
+      <c r="D2" s="11">
+        <v>45741</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" s="5" customFormat="1" ht="15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="13"/>
+      <c r="G2" s="13">
+        <v>45741</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="9"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="9"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="9"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="9"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="9"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="9"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="9"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="9"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="1"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="1"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="1"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="1"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="1"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="1"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="1"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="1"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="1"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="1"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="1"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="1"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="1"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="1"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="1"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="1"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="1"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="1"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="1"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="1"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="1"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="1"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="1"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="1"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="1"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="1"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="1"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="1"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="1"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="1"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="1"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="1"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="1"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="1"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="1"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="1"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="1"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="1"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="1"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="1"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I3:I54">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="H2:H53">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"Y(O(G3=""TARJT"", G3=""PLATF"", G3=""TRANS"", G3=""MOVIL"", G3=""OTRO""), ESBLANCO(I3))"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J54">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(OR(G3="TARJT", G3="PLATF", G3="TRANS", G3="MOVIL", G3="OTRO"), ISBLANK(I3))</formula>
+  <conditionalFormatting sqref="I2:I53">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(OR(F2="TARJT", F2="PLATF", F2="TRANS", F2="MOVIL", F2="OTRO"), ISBLANK(H2))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G54" xr:uid="{F941C92F-548C-44CC-875E-2E8447B3616B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{F941C92F-548C-44CC-875E-2E8447B3616B}">
       <formula1>"EFECT,TARJT,PLATF,TRANS,MOVIL,TREG,DESTI,OTRO"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E54 K3:K54 H3:H54" xr:uid="{CAEB0BC9-561F-49E0-97DD-EB2FAD5419EF}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D53 J2:J53 G2:G53" xr:uid="{CAEB0BC9-561F-49E0-97DD-EB2FAD5419EF}">
       <formula1>1</formula1>
       <formula2>146099</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I54" xr:uid="{6D6FABB8-37A7-4F4F-8B12-DCAC34BFA707}">
-      <formula1>IF(OR(G2="TARJT", G2="PLATF", G2="TRANS", G2="MOVIL", G2="OTRO"), NOT(ISBLANK(I2)), TRUE)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H53" xr:uid="{6D6FABB8-37A7-4F4F-8B12-DCAC34BFA707}">
+      <formula1>IF(OR(F1="TARJT", F1="PLATF", F1="TRANS", F1="MOVIL", F1="OTRO"), NOT(ISBLANK(H1)), TRUE)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DatosContrato.xlsx
+++ b/DatosContrato.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DatosViajeros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Desktop\AutoDatosViajeros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3123FC3-BE5F-49C2-815A-80B9D85CEF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3298BD-B626-47B2-8478-C59CE8EA8A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{FC20CB11-AA40-4491-BB35-1EEA2A64B57E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FC20CB11-AA40-4491-BB35-1EEA2A64B57E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -212,6 +212,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +566,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +618,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="14">
         <v>123</v>
       </c>
       <c r="B2" s="11">
@@ -646,7 +648,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -660,7 +662,7 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -674,7 +676,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -688,7 +690,7 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -702,7 +704,7 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -716,7 +718,7 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -730,7 +732,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -744,7 +746,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -758,7 +760,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -770,7 +772,7 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -782,7 +784,7 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -794,7 +796,7 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -806,7 +808,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -818,7 +820,7 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -830,7 +832,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -842,7 +844,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -854,7 +856,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -866,7 +868,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -878,7 +880,7 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -890,7 +892,7 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -902,7 +904,7 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -914,7 +916,7 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -926,7 +928,7 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -938,7 +940,7 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -950,7 +952,7 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -962,7 +964,7 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -974,7 +976,7 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -986,7 +988,7 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -998,7 +1000,7 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1010,7 +1012,7 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1022,7 +1024,7 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1034,7 +1036,7 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1046,7 +1048,7 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1058,7 +1060,7 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1070,7 +1072,7 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1082,7 +1084,7 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1094,7 +1096,7 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1106,7 +1108,7 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1118,7 +1120,7 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1130,7 +1132,7 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1142,7 +1144,7 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1154,7 +1156,7 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1166,7 +1168,7 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1178,7 +1180,7 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1190,7 +1192,7 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1202,7 +1204,7 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1214,7 +1216,7 @@
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1226,7 +1228,7 @@
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1238,7 +1240,7 @@
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1250,7 +1252,7 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1262,7 +1264,7 @@
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
